--- a/src/nlp/dataset/会话库.xlsx
+++ b/src/nlp/dataset/会话库.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,155 +453,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JD1412</t>
+          <t>JD1645</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这个奶酪小孩能吃吗</t>
+          <t>饮料在哪里买？</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>饮料在超市的饮料区可以找到，通常位于超市的入口附近或者靠近冷藏区的地方。如果您需要特定的饮料品牌或类型，可以向店员询问具体位置。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JD1507</t>
+          <t>JD1646</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>苹果在哪里卖！</t>
+          <t>饮料在哪里买？</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>您好，饮料在超市进门左手边的货架上有售，如果您需要冰镇的饮料，可以在货架旁边的冰柜里找到。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JD1508</t>
+          <t>JD1646</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>苹果在哪里卖！</t>
+          <t>都有哪些饮料</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>我们这里有多种饮料供您选择，包括汽水、果汁和牛奶等。如果您有特定的需求或偏好，可以告诉我，我会为您推荐合适的饮料。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JD1509</t>
+          <t>JD1646</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>苹果在哪里卖！</t>
+          <t>有可乐吗</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>苹果在进门左手边的果蔬区，您可以在那里找到。</t>
+          <t>是的，我们有可乐。您可以在饮料区找到它。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JD1510</t>
+          <t>JD1648</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>苹果和橙子在哪里卖！</t>
+          <t>这个卷尺的最大长度是多少，我需要至少2m</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苹果和橙子都在进门左手边的果蔬区，您可以在那里找到它们。</t>
+          <t>抱歉，我还没有学会回答这一类问题。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JD1510</t>
+          <t>JD1705</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>苹果和奶酪在哪里卖！</t>
+          <t>这个卷尺的最大长度是多少，我需要至少2m</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苹果在进门左手边的果蔬区，奶酪在直走到尽头的冷藏乳品柜上层。</t>
+          <t>抱歉，我还没有学会回答这一类问题。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JD1516</t>
+          <t>JD1705</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>你们有什么苹果和橙子卖</t>
+          <t>我需要2m的卷尺。你们这有吗</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>我们这里有多种苹果和橙子供应。苹果方面，我们有红富士、黄元帅和青苹果。橙子方面，我们有脐橙。您可以根据自己的口味选择喜欢的品种。</t>
+          <t>我们这里有2米的卷尺，您可以在测量工具区域找到。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JD1516</t>
+          <t>JD1707</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>我想给孩子做沙拉推荐什么苹果</t>
+          <t>这个卷尺的最大长度是多少，我需要至少2m</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>推荐您选择黄元帅苹果，这种苹果软糯酸甜，香气浓郁，非常适合作为儿童辅食使用，做沙拉也会很美味。您可以在进门左手边的果蔬区找到它。</t>
+          <t>您好，这款卷尺的最大长度为3米，完全满足您至少2米的需求。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JD1530</t>
+          <t>JD1707</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>我想给孩子做沙拉推荐什么苹果</t>
+          <t>这个卷尺的最大长度是多少，我需要至少2m</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>您可以选择青苹果来给孩子做沙拉。青苹果酸脆清爽，硬度高，非常适合用于健康轻食沙拉。您可以在进门左手边的果蔬区找到青苹果。</t>
+          <t>这个卷尺的最大长度是3米，完全满足您至少2米的需求。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JD1532</t>
+          <t>JD1708</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>我想给孩子做沙拉推荐什么苹果</t>
+          <t>这个卷尺的最大长度是多少，我需要至少2m</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>推荐您选择青苹果来给孩子做沙拉。青苹果酸脆清爽，硬度高，非常适合用于健康轻食沙拉，能够为沙拉增添清新的口感。</t>
+          <t>您好，这款卷尺的最大长度为3米，完全满足您至少2米的需求。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JD1708</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>今天天气真好</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>抱歉，我还没有学会回答这一类问题。</t>
         </is>
       </c>
     </row>
